--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/15/seed2/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.0402</v>
+        <v>15.9562</v>
       </c>
     </row>
     <row r="4">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.97110000000001</v>
+        <v>16.9293</v>
       </c>
     </row>
     <row r="15">
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.6679</v>
+        <v>16.7429</v>
       </c>
     </row>
     <row r="22">
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.19069999999999</v>
+        <v>16.16799999999998</v>
       </c>
     </row>
     <row r="24">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>16.93690000000001</v>
+        <v>16.95920000000001</v>
       </c>
     </row>
     <row r="26">
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.22019999999999</v>
+        <v>16.1946</v>
       </c>
     </row>
     <row r="27">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.03220000000001</v>
+        <v>17.02000000000002</v>
       </c>
     </row>
     <row r="30">
@@ -1341,7 +1341,7 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>16.49820000000001</v>
+        <v>16.62510000000002</v>
       </c>
     </row>
     <row r="54">
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.7152</v>
+        <v>16.7501</v>
       </c>
     </row>
     <row r="58">
@@ -1443,7 +1443,7 @@
         <v>-9.48</v>
       </c>
       <c r="E59" t="n">
-        <v>16.103</v>
+        <v>16.09729999999999</v>
       </c>
     </row>
     <row r="60">
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.24730000000003</v>
+        <v>17.25990000000003</v>
       </c>
     </row>
     <row r="70">
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>17.94340000000002</v>
+        <v>18.03910000000002</v>
       </c>
     </row>
     <row r="80">
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.6039</v>
+        <v>16.5116</v>
       </c>
     </row>
     <row r="84">
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>18.44620000000002</v>
+        <v>18.38330000000002</v>
       </c>
     </row>
     <row r="92">
@@ -2021,7 +2021,7 @@
         <v>-6.1</v>
       </c>
       <c r="E93" t="n">
-        <v>17.62550000000002</v>
+        <v>17.42400000000002</v>
       </c>
     </row>
     <row r="94">
